--- a/public/template/Database/template_industri_primer.xlsx
+++ b/public/template/Database/template_industri_primer.xlsx
@@ -5,22 +5,28 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laragon-project\PKL_DLH_UJI22\clone_pkl\PKL_DLH_uji2\public\template\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laragon-project\PKL_DLH_UJI22\clone_pkl\PKL_DLH_uji2\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EBCD29-6C95-4965-A3F0-A83DDD6FB413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B626275-C433-48AB-8BDF-CF788F2356CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template Industri Primer" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+  <si>
+    <t>TEMPLATE IMPORT DATA INDUSTRI PRIMER</t>
+  </si>
+  <si>
+    <t>CATATAN: Satu baris = satu jenis produksi. Jika perusahaan punya 2 jenis produksi, buat 2 baris dengan nomor izin yang sama.</t>
+  </si>
   <si>
     <t>Nama Perusahaan</t>
   </si>
@@ -28,9 +34,6 @@
     <t>Alamat</t>
   </si>
   <si>
-    <t>Kabupaten</t>
-  </si>
-  <si>
     <t>Latitude</t>
   </si>
   <si>
@@ -43,9 +46,6 @@
     <t>Kontak</t>
   </si>
   <si>
-    <t>Nomor Izin</t>
-  </si>
-  <si>
     <t>Tanggal SK</t>
   </si>
   <si>
@@ -61,43 +61,43 @@
     <t>Status</t>
   </si>
   <si>
-    <t>PT Kayu Jaya Abadi</t>
-  </si>
-  <si>
-    <t>Jl. Industri No. 123, Semarang</t>
-  </si>
-  <si>
-    <t>Kota Semarang</t>
-  </si>
-  <si>
-    <t>Budi Santoso</t>
+    <t>PT Kayu Prima</t>
+  </si>
+  <si>
+    <t>Jl. Industri No. 5</t>
+  </si>
+  <si>
+    <t>Ahmad Yani</t>
   </si>
   <si>
     <t>081234567890</t>
   </si>
   <si>
-    <t>SK.123/2024</t>
+    <t>SK-P-001/2024</t>
   </si>
   <si>
     <t>2024-01-15</t>
   </si>
   <si>
-    <t>Gubernur</t>
-  </si>
-  <si>
-    <t>Kayu Lapis, Kayu Gergajian</t>
+    <t>Gubernur Jawa Tengah</t>
+  </si>
+  <si>
+    <t>Gergajian</t>
   </si>
   <si>
     <t>Aktif</t>
   </si>
   <si>
-    <t>CV Mebel Sejahtera</t>
-  </si>
-  <si>
-    <t>Jl. Raya Kudus KM 5</t>
-  </si>
-  <si>
-    <t>Kabupaten Kudus</t>
+    <t>Veneer</t>
+  </si>
+  <si>
+    <t>CV Plywood Jaya</t>
+  </si>
+  <si>
+    <t>Jl. Raya Solo Km 10</t>
+  </si>
+  <si>
+    <t>Solo</t>
   </si>
   <si>
     <t>Siti Aminah</t>
@@ -106,29 +106,32 @@
     <t>082345678901</t>
   </si>
   <si>
-    <t>SK.456/2024</t>
-  </si>
-  <si>
-    <t>2024-02-20</t>
-  </si>
-  <si>
-    <t>Bupati/Walikota</t>
-  </si>
-  <si>
-    <t>Mebel</t>
-  </si>
-  <si>
-    <t>Dinas Lingkungan Hidup dan Kehutanan Provinsi Jawa Tengah</t>
-  </si>
-  <si>
-    <t>Database Industri Primer</t>
+    <t>SK-P-002/2024</t>
+  </si>
+  <si>
+    <t>2024-02-10</t>
+  </si>
+  <si>
+    <t>BKPM</t>
+  </si>
+  <si>
+    <t>Plywood</t>
+  </si>
+  <si>
+    <t>Kabupaten Semarang</t>
+  </si>
+  <si>
+    <t>Kabupaten/Kota</t>
+  </si>
+  <si>
+    <t>Nomor SK/NIB/SS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -136,8 +139,20 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -150,12 +165,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF15803D"/>
+        <fgColor rgb="FF9C27B0"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -163,34 +178,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -497,53 +498,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="13" width="20" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="D1" s="3" t="s">
-        <v>33</v>
-      </c>
+    <row r="1" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>8</v>
@@ -562,88 +596,133 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>-7.0050999999999997</v>
+      </c>
+      <c r="E6">
+        <v>110.43810000000001</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2">
-        <v>-6.9667000000000003</v>
-      </c>
-      <c r="E6" s="2">
-        <v>110.41670000000001</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6">
+        <v>3000</v>
+      </c>
+      <c r="M6" t="s">
         <v>21</v>
-      </c>
-      <c r="L6" s="2">
-        <v>5000</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>-7.0050999999999997</v>
+      </c>
+      <c r="E7">
+        <v>110.43810000000001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7">
+        <v>2000</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2">
-        <v>-6.8048000000000002</v>
-      </c>
-      <c r="E7" s="2">
-        <v>110.84050000000001</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D8">
+        <v>-7.5560999999999998</v>
+      </c>
+      <c r="E8">
+        <v>110.83159999999999</v>
+      </c>
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H8" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I8" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J8" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K8" t="s">
         <v>31</v>
       </c>
-      <c r="L7" s="2">
-        <v>3000</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>22</v>
+      <c r="L8">
+        <v>8000</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/template/Database/template_industri_primer.xlsx
+++ b/public/template/Database/template_industri_primer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laragon-project\PKL_DLH_UJI22\clone_pkl\PKL_DLH_uji2\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laragon-project\PKL_DLH_UJI22\clone_pkl\PKL_DLH_uji2\public\template\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B626275-C433-48AB-8BDF-CF788F2356CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA13AB1-B17B-4B6A-860B-95B309B571F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9C27B0"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -184,9 +184,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -194,11 +191,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -209,6 +234,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{25F7D854-B132-477F-8218-E9F10167A488}" name="Table6" displayName="Table6" ref="A5:M8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A5:M8" xr:uid="{25F7D854-B132-477F-8218-E9F10167A488}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{0000DB3A-D08F-490B-8005-F7A6B357D97B}" name="Nama Perusahaan"/>
+    <tableColumn id="2" xr3:uid="{4E9276F8-BEF0-487F-B141-E006317386E9}" name="Alamat"/>
+    <tableColumn id="3" xr3:uid="{616F3749-D9A4-42BB-BE42-7ABA67DC4AD7}" name="Kabupaten/Kota"/>
+    <tableColumn id="4" xr3:uid="{EABBC9A1-AB4E-48F1-9113-2F0820796852}" name="Latitude"/>
+    <tableColumn id="5" xr3:uid="{D4C28FF6-1AA3-4D62-9564-FEEEFCC1613F}" name="Longitude"/>
+    <tableColumn id="6" xr3:uid="{16634D7E-3241-449C-A1EC-57C03C7D8577}" name="Penanggung Jawab"/>
+    <tableColumn id="7" xr3:uid="{E1527D54-F26B-4546-910C-D46F15FF4418}" name="Kontak"/>
+    <tableColumn id="8" xr3:uid="{0D189395-EDDF-4318-A6EB-DA84F1900CBC}" name="Nomor SK/NIB/SS"/>
+    <tableColumn id="9" xr3:uid="{D61DC2BA-81C3-40B3-ACA0-2954F81A0EBE}" name="Tanggal SK"/>
+    <tableColumn id="10" xr3:uid="{456ED6E7-32FE-434D-9639-93633B53FFCA}" name="Pemberi Izin"/>
+    <tableColumn id="11" xr3:uid="{2D919DF4-A308-45B6-BD60-043A39ACB93A}" name="Jenis Produksi"/>
+    <tableColumn id="12" xr3:uid="{7CD4D387-ADDA-494D-9BFC-AAFDF7A6C1D1}" name="Kapasitas Izin (m³/tahun)"/>
+    <tableColumn id="13" xr3:uid="{45D3C487-3FCD-483A-A81F-FB299878974A}" name="Status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,7 +559,7 @@
     <col min="4" max="4" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="22.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
     <col min="9" max="9" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.81640625" bestFit="1" customWidth="1"/>
@@ -521,77 +568,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -724,5 +771,8 @@
     <mergeCell ref="A2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/public/template/Database/template_industri_primer.xlsx
+++ b/public/template/Database/template_industri_primer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laragon-project\PKL_DLH_UJI22\clone_pkl\PKL_DLH_uji2\public\template\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA13AB1-B17B-4B6A-860B-95B309B571F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD86BE9D-3D4D-45CB-B1D5-0D7AB7485B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>TEMPLATE IMPORT DATA INDUSTRI PRIMER</t>
   </si>
@@ -79,9 +79,6 @@
     <t>2024-01-15</t>
   </si>
   <si>
-    <t>Gubernur Jawa Tengah</t>
-  </si>
-  <si>
     <t>Gergajian</t>
   </si>
   <si>
@@ -125,13 +122,25 @@
   </si>
   <si>
     <t>Nomor SK/NIB/SS</t>
+  </si>
+  <si>
+    <t>Total Nilai Investasi</t>
+  </si>
+  <si>
+    <t>Total Pegawai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gubernur </t>
+  </si>
+  <si>
+    <t>Gubernur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -153,6 +162,10 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -184,14 +197,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -237,9 +250,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{25F7D854-B132-477F-8218-E9F10167A488}" name="Table6" displayName="Table6" ref="A5:M8" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A5:M8" xr:uid="{25F7D854-B132-477F-8218-E9F10167A488}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{25F7D854-B132-477F-8218-E9F10167A488}" name="Table6" displayName="Table6" ref="A5:O8" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A5:O8" xr:uid="{25F7D854-B132-477F-8218-E9F10167A488}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{0000DB3A-D08F-490B-8005-F7A6B357D97B}" name="Nama Perusahaan"/>
     <tableColumn id="2" xr3:uid="{4E9276F8-BEF0-487F-B141-E006317386E9}" name="Alamat"/>
     <tableColumn id="3" xr3:uid="{616F3749-D9A4-42BB-BE42-7ABA67DC4AD7}" name="Kabupaten/Kota"/>
@@ -249,6 +262,8 @@
     <tableColumn id="7" xr3:uid="{E1527D54-F26B-4546-910C-D46F15FF4418}" name="Kontak"/>
     <tableColumn id="8" xr3:uid="{0D189395-EDDF-4318-A6EB-DA84F1900CBC}" name="Nomor SK/NIB/SS"/>
     <tableColumn id="9" xr3:uid="{D61DC2BA-81C3-40B3-ACA0-2954F81A0EBE}" name="Tanggal SK"/>
+    <tableColumn id="16" xr3:uid="{EAA86545-8F05-4AD4-A642-391C063CD0EE}" name="Total Nilai Investasi"/>
+    <tableColumn id="17" xr3:uid="{E5CFF6AF-B2B8-475A-A4EF-DCE1BF61A90B}" name="Total Pegawai"/>
     <tableColumn id="10" xr3:uid="{456ED6E7-32FE-434D-9639-93633B53FFCA}" name="Pemberi Izin"/>
     <tableColumn id="11" xr3:uid="{2D919DF4-A308-45B6-BD60-043A39ACB93A}" name="Jenis Produksi"/>
     <tableColumn id="12" xr3:uid="{7CD4D387-ADDA-494D-9BFC-AAFDF7A6C1D1}" name="Kapasitas Izin (m³/tahun)"/>
@@ -545,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -567,82 +582,88 @@
     <col min="13" max="13" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="M5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="N5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="O5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -650,7 +671,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>-7.0050999999999997</v>
@@ -670,20 +691,26 @@
       <c r="I6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>230000</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
         <v>19</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N6">
+        <v>3000</v>
+      </c>
+      <c r="O6" t="s">
         <v>20</v>
       </c>
-      <c r="L6">
-        <v>3000</v>
-      </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -691,7 +718,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>-7.0050999999999997</v>
@@ -711,28 +738,34 @@
       <c r="I7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7">
-        <v>2000</v>
+      <c r="J7">
+        <v>230000</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
       </c>
       <c r="M7" t="s">
         <v>21</v>
       </c>
+      <c r="N7">
+        <v>2000</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8">
         <v>-7.5560999999999998</v>
@@ -741,28 +774,34 @@
         <v>110.83159999999999</v>
       </c>
       <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>27</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8">
+        <v>500000</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8" t="s">
         <v>29</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>30</v>
       </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8">
+      <c r="N8">
         <v>8000</v>
       </c>
-      <c r="M8" t="s">
-        <v>21</v>
+      <c r="O8" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -770,6 +809,7 @@
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
